--- a/natmiOut/OldD2/LR-pairs_lrc2p/Cntn1-Notch1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Cntn1-Notch1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Cntn1</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Neutro</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.101244526863411</v>
+        <v>0.1145166666666667</v>
       </c>
       <c r="H2">
-        <v>0.101244526863411</v>
+        <v>0.34355</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.5923587361059505</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.6855055141740312</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>67.0509315489811</v>
+        <v>67.073376</v>
       </c>
       <c r="N2">
-        <v>67.0509315489811</v>
+        <v>134.146752</v>
       </c>
       <c r="O2">
-        <v>0.4016786965895207</v>
+        <v>0.3886152607163267</v>
       </c>
       <c r="P2">
-        <v>0.4016786965895207</v>
+        <v>0.3201976973989085</v>
       </c>
       <c r="Q2">
-        <v>6.788539840427549</v>
+        <v>7.6810194416</v>
       </c>
       <c r="R2">
-        <v>6.788539840427549</v>
+        <v>46.0861166496</v>
       </c>
       <c r="S2">
-        <v>0.4016786965895207</v>
+        <v>0.2301996446694077</v>
       </c>
       <c r="T2">
-        <v>0.4016786965895207</v>
+        <v>0.2194972871927796</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.101244526863411</v>
+        <v>0.1145166666666667</v>
       </c>
       <c r="H3">
-        <v>0.101244526863411</v>
+        <v>0.34355</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.5923587361059505</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.6855055141740312</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.0064932287969</v>
+        <v>4.219010666666667</v>
       </c>
       <c r="N3">
-        <v>4.0064932287969</v>
+        <v>12.657032</v>
       </c>
       <c r="O3">
-        <v>0.02400150066315274</v>
+        <v>0.02444445215030819</v>
       </c>
       <c r="P3">
-        <v>0.02400150066315274</v>
+        <v>0.03021133528677833</v>
       </c>
       <c r="Q3">
-        <v>0.4056355113310021</v>
+        <v>0.4831470381777778</v>
       </c>
       <c r="R3">
-        <v>0.4056355113310021</v>
+        <v>4.348323343600001</v>
       </c>
       <c r="S3">
-        <v>0.02400150066315274</v>
+        <v>0.01447988478055895</v>
       </c>
       <c r="T3">
-        <v>0.02400150066315274</v>
+        <v>0.02071003692964703</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.101244526863411</v>
+        <v>0.1145166666666667</v>
       </c>
       <c r="H4">
-        <v>0.101244526863411</v>
+        <v>0.34355</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.5923587361059505</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.6855055141740312</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.4501840563228</v>
+        <v>12.54988666666667</v>
       </c>
       <c r="N4">
-        <v>12.4501840563228</v>
+        <v>37.64966</v>
       </c>
       <c r="O4">
-        <v>0.07458470133841665</v>
+        <v>0.07271256897710082</v>
       </c>
       <c r="P4">
-        <v>0.07458470133841665</v>
+        <v>0.0898667635266472</v>
       </c>
       <c r="Q4">
-        <v>1.260512994144785</v>
+        <v>1.437171188111111</v>
       </c>
       <c r="R4">
-        <v>1.260512994144785</v>
+        <v>12.934540693</v>
       </c>
       <c r="S4">
-        <v>0.07458470133841665</v>
+        <v>0.04307192545829219</v>
       </c>
       <c r="T4">
-        <v>0.07458470133841665</v>
+        <v>0.06160416193849036</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.101244526863411</v>
+        <v>0.1145166666666667</v>
       </c>
       <c r="H5">
-        <v>0.101244526863411</v>
+        <v>0.34355</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.5923587361059505</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.6855055141740312</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.1539764918563</v>
+        <v>12.18648933333333</v>
       </c>
       <c r="N5">
-        <v>12.1539764918563</v>
+        <v>36.559468</v>
       </c>
       <c r="O5">
-        <v>0.07281022534432931</v>
+        <v>0.07060708751994335</v>
       </c>
       <c r="P5">
-        <v>0.07281022534432931</v>
+        <v>0.08726456136432641</v>
       </c>
       <c r="Q5">
-        <v>1.230523599427011</v>
+        <v>1.395556136822222</v>
       </c>
       <c r="R5">
-        <v>1.230523599427011</v>
+        <v>12.5600052314</v>
       </c>
       <c r="S5">
-        <v>0.07281022534432931</v>
+        <v>0.04182472512343587</v>
       </c>
       <c r="T5">
-        <v>0.07281022534432931</v>
+        <v>0.05982033800722387</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.101244526863411</v>
+        <v>0.1145166666666667</v>
       </c>
       <c r="H6">
-        <v>0.101244526863411</v>
+        <v>0.34355</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.5923587361059505</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.6855055141740312</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>42.5873164668638</v>
+        <v>44.80271133333334</v>
       </c>
       <c r="N6">
-        <v>42.5873164668638</v>
+        <v>134.408134</v>
       </c>
       <c r="O6">
-        <v>0.2551257286732689</v>
+        <v>0.2595816460111038</v>
       </c>
       <c r="P6">
-        <v>0.2551257286732689</v>
+        <v>0.3208215955797718</v>
       </c>
       <c r="Q6">
-        <v>4.311732706069977</v>
+        <v>5.130657159522223</v>
       </c>
       <c r="R6">
-        <v>4.311732706069977</v>
+        <v>46.17591443570001</v>
       </c>
       <c r="S6">
-        <v>0.2551257286732689</v>
+        <v>0.1537654557474397</v>
       </c>
       <c r="T6">
-        <v>0.2551257286732689</v>
+        <v>0.2199249728360446</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,433 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.1145166666666667</v>
+      </c>
+      <c r="H7">
+        <v>0.34355</v>
+      </c>
+      <c r="I7">
+        <v>0.5923587361059505</v>
+      </c>
+      <c r="J7">
+        <v>0.6855055141740312</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>31.7643625</v>
+      </c>
+      <c r="N7">
+        <v>63.528725</v>
+      </c>
+      <c r="O7">
+        <v>0.1840389846252172</v>
+      </c>
+      <c r="P7">
+        <v>0.1516380468435678</v>
+      </c>
+      <c r="Q7">
+        <v>3.637548912291667</v>
+      </c>
+      <c r="R7">
+        <v>21.82529347375</v>
+      </c>
+      <c r="S7">
+        <v>0.1090171003268161</v>
+      </c>
+      <c r="T7">
+        <v>0.1039487172698458</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.5</v>
+      </c>
+      <c r="G8">
+        <v>0.0788065</v>
+      </c>
+      <c r="H8">
+        <v>0.157613</v>
+      </c>
+      <c r="I8">
+        <v>0.4076412638940496</v>
+      </c>
+      <c r="J8">
+        <v>0.3144944858259688</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>67.073376</v>
+      </c>
+      <c r="N8">
+        <v>134.146752</v>
+      </c>
+      <c r="O8">
+        <v>0.3886152607163267</v>
+      </c>
+      <c r="P8">
+        <v>0.3201976973989085</v>
+      </c>
+      <c r="Q8">
+        <v>5.285818005744</v>
+      </c>
+      <c r="R8">
+        <v>21.143272022976</v>
+      </c>
+      <c r="S8">
+        <v>0.1584156160469191</v>
+      </c>
+      <c r="T8">
+        <v>0.1007004102061289</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.5</v>
+      </c>
+      <c r="G9">
+        <v>0.0788065</v>
+      </c>
+      <c r="H9">
+        <v>0.157613</v>
+      </c>
+      <c r="I9">
+        <v>0.4076412638940496</v>
+      </c>
+      <c r="J9">
+        <v>0.3144944858259688</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>4.219010666666667</v>
+      </c>
+      <c r="N9">
+        <v>12.657032</v>
+      </c>
+      <c r="O9">
+        <v>0.02444445215030819</v>
+      </c>
+      <c r="P9">
+        <v>0.03021133528677833</v>
+      </c>
+      <c r="Q9">
+        <v>0.3324854641026667</v>
+      </c>
+      <c r="R9">
+        <v>1.994912784616</v>
+      </c>
+      <c r="S9">
+        <v>0.009964567369749253</v>
+      </c>
+      <c r="T9">
+        <v>0.009501298357131299</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.5</v>
+      </c>
+      <c r="G10">
+        <v>0.0788065</v>
+      </c>
+      <c r="H10">
+        <v>0.157613</v>
+      </c>
+      <c r="I10">
+        <v>0.4076412638940496</v>
+      </c>
+      <c r="J10">
+        <v>0.3144944858259688</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>12.54988666666667</v>
+      </c>
+      <c r="N10">
+        <v>37.64966</v>
+      </c>
+      <c r="O10">
+        <v>0.07271256897710082</v>
+      </c>
+      <c r="P10">
+        <v>0.0898667635266472</v>
+      </c>
+      <c r="Q10">
+        <v>0.9890126435966666</v>
+      </c>
+      <c r="R10">
+        <v>5.934075861579999</v>
+      </c>
+      <c r="S10">
+        <v>0.02964064351880864</v>
+      </c>
+      <c r="T10">
+        <v>0.02826260158815684</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.5</v>
+      </c>
+      <c r="G11">
+        <v>0.0788065</v>
+      </c>
+      <c r="H11">
+        <v>0.157613</v>
+      </c>
+      <c r="I11">
+        <v>0.4076412638940496</v>
+      </c>
+      <c r="J11">
+        <v>0.3144944858259688</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>12.18648933333333</v>
+      </c>
+      <c r="N11">
+        <v>36.559468</v>
+      </c>
+      <c r="O11">
+        <v>0.07060708751994335</v>
+      </c>
+      <c r="P11">
+        <v>0.08726456136432641</v>
+      </c>
+      <c r="Q11">
+        <v>0.9603745716473333</v>
+      </c>
+      <c r="R11">
+        <v>5.762247429883999</v>
+      </c>
+      <c r="S11">
+        <v>0.02878236239650749</v>
+      </c>
+      <c r="T11">
+        <v>0.02744422335710254</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
         <v>27</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.101244526863411</v>
-      </c>
-      <c r="H7">
-        <v>0.101244526863411</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>28.6778785375313</v>
-      </c>
-      <c r="N7">
-        <v>28.6778785375313</v>
-      </c>
-      <c r="O7">
-        <v>0.1717991473913118</v>
-      </c>
-      <c r="P7">
-        <v>0.1717991473913118</v>
-      </c>
-      <c r="Q7">
-        <v>2.903478243978725</v>
-      </c>
-      <c r="R7">
-        <v>2.903478243978725</v>
-      </c>
-      <c r="S7">
-        <v>0.1717991473913118</v>
-      </c>
-      <c r="T7">
-        <v>0.1717991473913118</v>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.5</v>
+      </c>
+      <c r="G12">
+        <v>0.0788065</v>
+      </c>
+      <c r="H12">
+        <v>0.157613</v>
+      </c>
+      <c r="I12">
+        <v>0.4076412638940496</v>
+      </c>
+      <c r="J12">
+        <v>0.3144944858259688</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>44.80271133333334</v>
+      </c>
+      <c r="N12">
+        <v>134.408134</v>
+      </c>
+      <c r="O12">
+        <v>0.2595816460111038</v>
+      </c>
+      <c r="P12">
+        <v>0.3208215955797718</v>
+      </c>
+      <c r="Q12">
+        <v>3.530744870690334</v>
+      </c>
+      <c r="R12">
+        <v>21.184469224142</v>
+      </c>
+      <c r="S12">
+        <v>0.1058161902636641</v>
+      </c>
+      <c r="T12">
+        <v>0.1008966227437272</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.5</v>
+      </c>
+      <c r="G13">
+        <v>0.0788065</v>
+      </c>
+      <c r="H13">
+        <v>0.157613</v>
+      </c>
+      <c r="I13">
+        <v>0.4076412638940496</v>
+      </c>
+      <c r="J13">
+        <v>0.3144944858259688</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>31.7643625</v>
+      </c>
+      <c r="N13">
+        <v>63.528725</v>
+      </c>
+      <c r="O13">
+        <v>0.1840389846252172</v>
+      </c>
+      <c r="P13">
+        <v>0.1516380468435678</v>
+      </c>
+      <c r="Q13">
+        <v>2.50323823335625</v>
+      </c>
+      <c r="R13">
+        <v>10.012952933425</v>
+      </c>
+      <c r="S13">
+        <v>0.07502188429840111</v>
+      </c>
+      <c r="T13">
+        <v>0.04768932957372202</v>
       </c>
     </row>
   </sheetData>
